--- a/Programas.xlsx
+++ b/Programas.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\danie\OneDrive\Documentos\GitHub\ESPECIALIZACION_EN_INDUSTRIA_5.0_Y_AUTOMATIZACION_INDUSTRIAL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C1A17F5-CF29-4295-80F4-E55B3F5A252A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5D6FC9E-30E6-4CDF-893F-805A71972E88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="13152" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="13152" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Programas" sheetId="1" r:id="rId1"/>
@@ -1070,8 +1070,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AL29"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="R31" sqref="R31"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:AH21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -1372,8 +1372,11 @@
       <c r="Z3" t="s">
         <v>54</v>
       </c>
+      <c r="AA3">
+        <v>26</v>
+      </c>
       <c r="AB3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AC3" t="s">
         <v>55</v>
@@ -3328,7 +3331,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:38" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:38" ht="28.8" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" t="s">
         <v>178</v>
       </c>
@@ -3433,7 +3436,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:38" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:38" ht="28.8" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" t="s">
         <v>37</v>
       </c>
@@ -3538,7 +3541,7 @@
         <v>9.1324200913242013</v>
       </c>
     </row>
-    <row r="25" spans="1:38" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:38" ht="28.8" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" t="s">
         <v>78</v>
       </c>
@@ -3637,7 +3640,7 @@
         <v>6.5175623463294698</v>
       </c>
     </row>
-    <row r="26" spans="1:38" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:38" ht="28.8" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" t="s">
         <v>78</v>
       </c>
@@ -3736,7 +3739,7 @@
         <v>5.8508956796628029</v>
       </c>
     </row>
-    <row r="27" spans="1:38" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:38" ht="28.8" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" t="s">
         <v>78</v>
       </c>
@@ -3864,14 +3867,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE097B67-9CC8-46A7-B8E2-51812780916B}">
   <dimension ref="A1:D26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="1" max="1" width="54" customWidth="1"/>
-    <col min="2" max="2" width="42.7890625" style="4" customWidth="1"/>
+    <col min="2" max="2" width="45.15625" style="4" customWidth="1"/>
     <col min="3" max="3" width="16.3125" style="3" customWidth="1"/>
   </cols>
   <sheetData>
@@ -4141,7 +4144,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:4" ht="28.8" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" t="s">
         <v>38</v>
       </c>
@@ -4155,7 +4158,7 @@
         <v>9.1324200913242013</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:4" ht="28.8" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" t="s">
         <v>79</v>
       </c>
@@ -4169,7 +4172,7 @@
         <v>6.5175623463294698</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:4" ht="28.8" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" t="s">
         <v>79</v>
       </c>
@@ -4183,7 +4186,7 @@
         <v>5.8508956796628029</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:4" ht="28.8" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" t="s">
         <v>79</v>
       </c>
